--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:11:49+00:00</t>
+    <t>2022-02-25T20:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-25T20:13:21+00:00</t>
+    <t>2022-03-02T07:06:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T07:06:01+00:00</t>
+    <t>2022-03-02T18:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-02T18:06:48+00:00</t>
+    <t>2022-03-04T08:28:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:28:51+00:00</t>
+    <t>2022-03-04T08:37:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/jose/ValueSet-vs-vn-whostage.xlsx
+++ b/branches/jose/ValueSet-vs-vn-whostage.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T08:37:21+00:00</t>
+    <t>2022-03-08T06:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
